--- a/Docs/UpdateScript/20240528_公式_代碼_會議_專案_20240325_01_04251058 - 新增專編.xlsx
+++ b/Docs/UpdateScript/20240528_公式_代碼_會議_專案_20240325_01_04251058 - 新增專編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\UpdateScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64212AF8-3F84-42BA-8028-A78709FC35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17AD012-C489-40D8-BD41-E5BEF6EFEA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,8 +2400,8 @@
   <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122:G165"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.59765625" defaultRowHeight="19.5"/>
@@ -2446,8 +2446,8 @@
         <v>429</v>
       </c>
       <c r="G2" s="18" t="str">
-        <f>"Update Project Set PjNo = '" &amp; D2 &amp; "' Where DCode = '" &amp; E2 &amp; "' "</f>
-        <v xml:space="preserve">Update Project Set PjNo = 'D21' Where DCode = '113055100' </v>
+        <f>"Update Project Set PjNo = '" &amp; E2 &amp; "' Where DCode = '" &amp; D2 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set PjNo = '113055100' Where DCode = 'D21' </v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2465,8 +2465,8 @@
         <v>457</v>
       </c>
       <c r="G3" s="18" t="str">
-        <f t="shared" ref="G3:G66" si="0">"Update Project Set PjNo = '" &amp; D3 &amp; "' Where DCode = '" &amp; E3 &amp; "' "</f>
-        <v xml:space="preserve">Update Project Set PjNo = 'D20' Where DCode = '1130151A1,1130151A2,1130151A3,1130151A4,1130151A5,1130151B1' </v>
+        <f t="shared" ref="G3:G66" si="0">"Update Project Set PjNo = '" &amp; E3 &amp; "' Where DCode = '" &amp; D3 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set PjNo = '1130151A1,1130151A2,1130151A3,1130151A4,1130151A5,1130151B1' Where DCode = 'D20' </v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="G4" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D19' Where DCode = '113013103' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113013103' Where DCode = 'D19' </v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="G5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D18' Where DCode = '113040600' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113040600' Where DCode = 'D18' </v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="G6" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D17' Where DCode = '113010900' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113010900' Where DCode = 'D17' </v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="G7" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D16' Where DCode = '113011700,113090301,113090302,113090303,113090304' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113011700,113090301,113090302,113090303,113090304' Where DCode = 'D16' </v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D13' Where DCode = '113030800' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113030800' Where DCode = 'D13' </v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D12' Where DCode = '113058000' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113058000' Where DCode = 'D12' </v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D10' Where DCode = '113030100' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113030100' Where DCode = 'D10' </v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D9' Where DCode = '113030201,113030202,113057001,113057002,113057003' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113030201,113030202,113057001,113057002,113057003' Where DCode = 'D9' </v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="G15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D8' Where DCode = '113010300' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113010300' Where DCode = 'D8' </v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D7' Where DCode = '113010800' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113010800' Where DCode = 'D7' </v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D6' Where DCode = '113010700' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113010700' Where DCode = 'D6' </v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D5' Where DCode = '113056100,113010500' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113056100,113010500' Where DCode = 'D5' </v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="G19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D4' Where DCode = '113040201,113040202,113040203,113040204' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113040201,113040202,113040203,113040204' Where DCode = 'D4' </v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="G20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D3' Where DCode = '113040400' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113040400' Where DCode = 'D3' </v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="G21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D2' Where DCode = '113030700' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113030700' Where DCode = 'D2' </v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="G22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'D1' Where DCode = '113010200' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113010200' Where DCode = 'D1' </v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="G25" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C49' Where DCode = '112056100,112056200,112056300' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112056100,112056200,112056300' Where DCode = 'C49' </v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C48' Where DCode = '113010600,113055300' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '113010600,113055300' Where DCode = 'C48' </v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="G30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C44' Where DCode = '112010100' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112010100' Where DCode = 'C44' </v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="G31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C43' Where DCode = '112730700' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112730700' Where DCode = 'C43' </v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G34" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C40' Where DCode = '112010700' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112010700' Where DCode = 'C40' </v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C37' Where DCode = '112010600' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112010600' Where DCode = 'C37' </v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C36' Where DCode = '112010400' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112010400' Where DCode = 'C36' </v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G41" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C33' Where DCode = '112731900' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112731900' Where DCode = 'C33' </v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="G45" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C29' Where DCode = '112041200' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112041200' Where DCode = 'C29' </v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="G47" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C27' Where DCode = '112040600' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112040600' Where DCode = 'C27' </v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G49" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C25' Where DCode = '11205010D,11205010A,11205010C,11205010D' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11205010D,11205010A,11205010C,11205010D' Where DCode = 'C25' </v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="G50" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C24' Where DCode = '11205040D,11205040A' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11205040D,11205040A' Where DCode = 'C24' </v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="G51" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C23' Where DCode = '11205050A,11205050B,11205050C,11205050D' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11205050A,11205050B,11205050C,11205050D' Where DCode = 'C23' </v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="G52" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C22' Where DCode = '11205020A,11205020B,11205020C,11205020D' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11205020A,11205020B,11205020C,11205020D' Where DCode = 'C22' </v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G54" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C20' Where DCode = '11205090A,11205090B,11205090D' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11205090A,11205090B,11205090D' Where DCode = 'C20' </v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="G65" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C9' Where DCode = '111731600' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '111731600' Where DCode = 'C9' </v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3605,8 +3605,8 @@
         <v>495</v>
       </c>
       <c r="G67" s="18" t="str">
-        <f t="shared" ref="G67:G130" si="1">"Update Project Set PjNo = '" &amp; D67 &amp; "' Where DCode = '" &amp; E67 &amp; "' "</f>
-        <v xml:space="preserve">Update Project Set PjNo = 'C7' Where DCode = '112730600' </v>
+        <f t="shared" ref="G67:G130" si="1">"Update Project Set PjNo = '" &amp; E67 &amp; "' Where DCode = '" &amp; D67 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set PjNo = '112730600' Where DCode = 'C7' </v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="G70" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C4' Where DCode = '112730900' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112730900' Where DCode = 'C4' </v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="G71" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C3' Where DCode = '112731000' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112731000' Where DCode = 'C3' </v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="G72" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C2' Where DCode = '112030900' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112030900' Where DCode = 'C2' </v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="G73" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'C1' Where DCode = '112010200' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '112010200' Where DCode = 'C1' </v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G77" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B47' Where DCode = '1107306' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107306' Where DCode = 'B47' </v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="G78" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B46' Where DCode = '1107307' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107307' Where DCode = 'B46' </v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="G79" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B45' Where DCode = '1107303' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107303' Where DCode = 'B45' </v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="G80" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B44' Where DCode = '1107308' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107308' Where DCode = 'B44' </v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="G88" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B36' Where DCode = '110555' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '110555' Where DCode = 'B36' </v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="G98" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B26' Where DCode = '110808' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '110808' Where DCode = 'B26' </v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G99" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B25' Where DCode = '11051D,11051C,11051A' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11051D,11051C,11051A' Where DCode = 'B25' </v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G100" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B24' Where DCode = '11054A,11054B,11054C,11054D' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11054A,11054B,11054C,11054D' Where DCode = 'B24' </v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="G101" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B23' Where DCode = '11055A' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11055A' Where DCode = 'B23' </v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="G102" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B22' Where DCode = '11056A' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11056A' Where DCode = 'B22' </v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="G103" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B21' Where DCode = '11058A,11058B,11058C,11058D' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11058A,11058B,11058C,11058D' Where DCode = 'B21' </v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="G104" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B20' Where DCode = '11059A' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '11059A' Where DCode = 'B20' </v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="G107" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B17' Where DCode = '1107302' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107302' Where DCode = 'B17' </v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="G115" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B9' Where DCode = '1110561' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1110561' Where DCode = 'B9' </v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G117" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B7' Where DCode = '1107312' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107312' Where DCode = 'B7' </v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G121" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Update Project Set PjNo = 'B3' Where DCode = '1107313' </v>
+        <v xml:space="preserve">Update Project Set PjNo = '1107313' Where DCode = 'B3' </v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5206,6 +5206,7 @@
       <c r="D166" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="G166" s="18"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="17" t="s">
@@ -5220,6 +5221,7 @@
       <c r="D167" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="G167" s="18"/>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="10"/>
